--- a/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
+++ b/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,13 +977,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>6.61</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
+++ b/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.49</v>
       </c>
     </row>
     <row r="3">
@@ -1333,13 +1376,803 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>6.61</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
+++ b/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2103,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,17 +2115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.21</v>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2150,14 +2193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.49</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4622</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2166,13 +2231,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.61</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
+++ b/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,471 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010336</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2300</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006529</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>62.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6530</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4417</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.49</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3842</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2727</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010335</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1868</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006530</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1612</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010337</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0666</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -928,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>006529</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>中欧匠心两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.49</t>
+          <t>43.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4629</t>
+          <t>1.1761</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1017,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3379</t>
+          <t>0.4622</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1055,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2657</t>
+          <t>0.3674</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1093,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>012744</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>86.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2088</t>
+          <t>0.3073</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1131,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0812</t>
+          <t>0.1921</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1169,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>870017</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>广发资管消费精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.1411</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1207,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>006530</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>中欧匠心两年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0395</t>
+          <t>0.1388</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1245,35 +871,225 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.0695</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2104,7 +1920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,36 +1971,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006529</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合A</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.40</t>
+          <t>59.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1761</t>
+          <t>2.4629</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2193,36 +2009,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4622</t>
+          <t>0.3379</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2231,36 +2047,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3674</t>
+          <t>0.2657</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2269,36 +2085,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012744</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3073</t>
+          <t>0.2088</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2307,36 +2123,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>89.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1921</t>
+          <t>0.0812</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2345,36 +2161,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>870017</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发资管消费精选灵活配置混合</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1411</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2383,36 +2199,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006530</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1388</t>
+          <t>0.0395</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2421,225 +2237,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0695</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004099</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012758</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012315</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012316</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2654,96 +2280,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.93</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.21</v>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3842</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.61</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
+++ b/数据整理/stocks/港股/01995-旭辉永升服务.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.93</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>5.21</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>3.49</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.61</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1098,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1914,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2274,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
